--- a/TestWorkbook.xlsx
+++ b/TestWorkbook.xlsx
@@ -57,13 +57,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -75,10 +75,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1" y="11"/>
-          <a:ext cx="7" cy="18"/>
-          <a:chOff x="1" y="11"/>
-          <a:chExt cx="7" cy="18"/>
+          <a:off x="5" y="11"/>
+          <a:ext cx="11" cy="18"/>
+          <a:chOff x="5" y="11"/>
+          <a:chExt cx="11" cy="18"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp>
@@ -89,7 +89,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="0" y="0"/>
-            <a:ext cx="9" cy="20"/>
+            <a:ext cx="9" cy="10"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
